--- a/classfiers/bloated/svm/bloated-svm-poly-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9937347720153149</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9892098851374869</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8881118881118881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6898489638215666</v>
+        <v>0.994055944055944</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4188034188034188</v>
+        <v>0.7038086342880863</v>
       </c>
       <c r="E7" t="n">
-        <v>0.715592170386691</v>
+        <v>0.9954001202417491</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/bloated-svm-poly-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3561643835616438</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9937347720153149</v>
+        <v>0.9941956882255391</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.65</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.787878787878788</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9892098851374869</v>
+        <v>0.990049751243781</v>
       </c>
     </row>
     <row r="4">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.994055944055944</v>
+        <v>0.9945833333333334</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.7707602339181286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7038086342880863</v>
+        <v>0.6847088395475491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9954001202417491</v>
+        <v>0.9957657545605307</v>
       </c>
     </row>
   </sheetData>
